--- a/natmiOut/OldD0/LR-pairs_lrc2p/Vtn-Itgb8.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Vtn-Itgb8.xlsx
@@ -528,52 +528,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.63043844217452</v>
+        <v>2.021590333333334</v>
       </c>
       <c r="H2">
-        <v>1.63043844217452</v>
+        <v>6.064771</v>
       </c>
       <c r="I2">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="J2">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.16524466463928</v>
+        <v>4.237840333333334</v>
       </c>
       <c r="N2">
-        <v>4.16524466463928</v>
+        <v>12.713521</v>
       </c>
       <c r="O2">
-        <v>0.4433658634410106</v>
+        <v>0.4475167411500002</v>
       </c>
       <c r="P2">
-        <v>0.4433658634410106</v>
+        <v>0.4475167411500002</v>
       </c>
       <c r="Q2">
-        <v>6.791175022290198</v>
+        <v>8.567177052076779</v>
       </c>
       <c r="R2">
-        <v>6.791175022290198</v>
+        <v>77.10459346869101</v>
       </c>
       <c r="S2">
-        <v>0.004049088593000576</v>
+        <v>0.004995460880890635</v>
       </c>
       <c r="T2">
-        <v>0.004049088593000576</v>
+        <v>0.004995460880890635</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.63043844217452</v>
+        <v>2.021590333333334</v>
       </c>
       <c r="H3">
-        <v>1.63043844217452</v>
+        <v>6.064771</v>
       </c>
       <c r="I3">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="J3">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.22935471275158</v>
+        <v>5.231839666666667</v>
       </c>
       <c r="N3">
-        <v>5.22935471275158</v>
+        <v>15.695519</v>
       </c>
       <c r="O3">
-        <v>0.5566341365589893</v>
+        <v>0.5524832588499998</v>
       </c>
       <c r="P3">
-        <v>0.5566341365589893</v>
+        <v>0.5524832588499998</v>
       </c>
       <c r="Q3">
-        <v>8.526140951436672</v>
+        <v>10.57663649568322</v>
       </c>
       <c r="R3">
-        <v>8.526140951436672</v>
+        <v>95.189728461149</v>
       </c>
       <c r="S3">
-        <v>0.005083523831364167</v>
+        <v>0.006167162595615778</v>
       </c>
       <c r="T3">
-        <v>0.005083523831364167</v>
+        <v>0.006167162595615778</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.1300695368319</v>
+        <v>25.140634</v>
       </c>
       <c r="H4">
-        <v>25.1300695368319</v>
+        <v>75.421902</v>
       </c>
       <c r="I4">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="J4">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.16524466463928</v>
+        <v>4.237840333333334</v>
       </c>
       <c r="N4">
-        <v>4.16524466463928</v>
+        <v>12.713521</v>
       </c>
       <c r="O4">
-        <v>0.4433658634410106</v>
+        <v>0.4475167411500002</v>
       </c>
       <c r="P4">
-        <v>0.4433658634410106</v>
+        <v>0.4475167411500002</v>
       </c>
       <c r="Q4">
-        <v>104.6728880603032</v>
+        <v>106.5419927707713</v>
       </c>
       <c r="R4">
-        <v>104.6728880603032</v>
+        <v>958.8779349369421</v>
       </c>
       <c r="S4">
-        <v>0.06240890503488614</v>
+        <v>0.06212388909710972</v>
       </c>
       <c r="T4">
-        <v>0.06240890503488614</v>
+        <v>0.0621238890971097</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.1300695368319</v>
+        <v>25.140634</v>
       </c>
       <c r="H5">
-        <v>25.1300695368319</v>
+        <v>75.421902</v>
       </c>
       <c r="I5">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="J5">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.22935471275158</v>
+        <v>5.231839666666667</v>
       </c>
       <c r="N5">
-        <v>5.22935471275158</v>
+        <v>15.695519</v>
       </c>
       <c r="O5">
-        <v>0.5566341365589893</v>
+        <v>0.5524832588499998</v>
       </c>
       <c r="P5">
-        <v>0.5566341365589893</v>
+        <v>0.5524832588499998</v>
       </c>
       <c r="Q5">
-        <v>131.4140475642068</v>
+        <v>131.5317662063487</v>
       </c>
       <c r="R5">
-        <v>131.4140475642068</v>
+        <v>1183.785895857138</v>
       </c>
       <c r="S5">
-        <v>0.07835273265756912</v>
+        <v>0.07669525080247858</v>
       </c>
       <c r="T5">
-        <v>0.07835273265756912</v>
+        <v>0.07669525080247856</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>151.768741529568</v>
+        <v>153.9412893333333</v>
       </c>
       <c r="H6">
-        <v>151.768741529568</v>
+        <v>461.823868</v>
       </c>
       <c r="I6">
-        <v>0.8501057498831799</v>
+        <v>0.8500182366239053</v>
       </c>
       <c r="J6">
-        <v>0.8501057498831799</v>
+        <v>0.8500182366239052</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.16524466463928</v>
+        <v>4.237840333333334</v>
       </c>
       <c r="N6">
-        <v>4.16524466463928</v>
+        <v>12.713521</v>
       </c>
       <c r="O6">
-        <v>0.4433658634410106</v>
+        <v>0.4475167411500002</v>
       </c>
       <c r="P6">
-        <v>0.4433658634410106</v>
+        <v>0.4475167411500002</v>
       </c>
       <c r="Q6">
-        <v>632.153940915051</v>
+        <v>652.3786049021365</v>
       </c>
       <c r="R6">
-        <v>632.153940915051</v>
+        <v>5871.407444119228</v>
       </c>
       <c r="S6">
-        <v>0.3769078698131239</v>
+        <v>0.3803973911719998</v>
       </c>
       <c r="T6">
-        <v>0.3769078698131239</v>
+        <v>0.3803973911719998</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>151.768741529568</v>
+        <v>153.9412893333333</v>
       </c>
       <c r="H7">
-        <v>151.768741529568</v>
+        <v>461.823868</v>
       </c>
       <c r="I7">
-        <v>0.8501057498831799</v>
+        <v>0.8500182366239053</v>
       </c>
       <c r="J7">
-        <v>0.8501057498831799</v>
+        <v>0.8500182366239052</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.22935471275158</v>
+        <v>5.231839666666667</v>
       </c>
       <c r="N7">
-        <v>5.22935471275158</v>
+        <v>15.695519</v>
       </c>
       <c r="O7">
-        <v>0.5566341365589893</v>
+        <v>0.5524832588499998</v>
       </c>
       <c r="P7">
-        <v>0.5566341365589893</v>
+        <v>0.5524832588499998</v>
       </c>
       <c r="Q7">
-        <v>793.6525837660229</v>
+        <v>805.3961438719437</v>
       </c>
       <c r="R7">
-        <v>793.6525837660229</v>
+        <v>7248.565294847492</v>
       </c>
       <c r="S7">
-        <v>0.473197880070056</v>
+        <v>0.4696208454519055</v>
       </c>
       <c r="T7">
-        <v>0.473197880070056</v>
+        <v>0.4696208454519054</v>
       </c>
     </row>
   </sheetData>
